--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -480,11 +480,22 @@
       <c r="A2" s="3" t="n">
         <v>45338</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
         <v>1.820689655172414</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="1" t="n">
         <v>4.234885088109301</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.291503267973856</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.308739436576183</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -491,11 +491,22 @@
       <c r="A3" s="3" t="n">
         <v>45341</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
         <v>1.291503267973856</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="1" t="n">
         <v>4.308739436576183</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5849227974568574</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.359628671809108</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -502,11 +502,22 @@
       <c r="A4" s="3" t="n">
         <v>45342</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.5849227974568574</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
         <v>1.359628671809108</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45343</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.676486353856026</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -513,11 +513,22 @@
       <c r="A5" s="3" t="n">
         <v>45343</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
         <v>2.676486353856026</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.521557719054242</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.142372958221402</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -524,11 +524,22 @@
       <c r="A6" s="3" t="n">
         <v>45344</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.521557719054242</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="1" t="n">
         <v>1.142372958221402</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6738794435857806</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.945724850632455</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -535,11 +535,22 @@
       <c r="A7" s="3" t="n">
         <v>45345</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.6738794435857806</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="1" t="n">
         <v>1.945724850632455</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.944015444015444</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.694257491430467</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -546,11 +546,22 @@
       <c r="A8" s="3" t="n">
         <v>45348</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.944015444015444</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="1" t="n">
         <v>1.694257491430467</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8484546360917248</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.13254513839868</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -557,11 +557,22 @@
       <c r="A9" s="3" t="n">
         <v>45349</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.8484546360917248</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="1" t="n">
         <v>1.13254513839868</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6505148394912175</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3761715126860698</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -568,11 +568,22 @@
       <c r="A10" s="3" t="n">
         <v>45350</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.6505148394912175</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.3761715126860698</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9046069532454187</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.052389723531506</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -579,11 +579,22 @@
       <c r="A11" s="3" t="n">
         <v>45351</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.9046069532454187</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="1" t="n">
         <v>2.052389723531506</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9327369118621603</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.096460736778429</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -590,11 +590,22 @@
       <c r="A12" s="3" t="n">
         <v>45352</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.9327369118621603</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="1" t="n">
         <v>2.096460736778429</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9341317365269461</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.54425202437515</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -601,11 +601,22 @@
       <c r="A13" s="3" t="n">
         <v>45355</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
         <v>0.9341317365269461</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="1" t="n">
         <v>2.54425202437515</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.01803833145434</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.534282637551797</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -612,11 +612,22 @@
       <c r="A14" s="3" t="n">
         <v>45356</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
         <v>1.01803833145434</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="1" t="n">
         <v>2.534282637551797</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45357</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9727164887307236</v>
+      </c>
+      <c r="C15" t="n">
+        <v>15.27436019073454</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -623,11 +623,22 @@
       <c r="A15" s="3" t="n">
         <v>45357</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="1" t="n">
         <v>0.9727164887307236</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="1" t="n">
         <v>15.27436019073454</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.032051282051282</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28.29124951295039</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -634,11 +634,22 @@
       <c r="A16" s="3" t="n">
         <v>45358</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="1" t="n">
         <v>1.032051282051282</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="1" t="n">
         <v>28.29124951295039</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.8533077660594439</v>
+      </c>
+      <c r="C17" t="n">
+        <v>12.4336139771031</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -645,11 +645,22 @@
       <c r="A17" s="3" t="n">
         <v>45359</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="1" t="n">
         <v>0.8533077660594439</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="1" t="n">
         <v>12.4336139771031</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.33695652173913</v>
+      </c>
+      <c r="C18" t="n">
+        <v>22.35053685527962</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -656,11 +656,22 @@
       <c r="A18" s="3" t="n">
         <v>45362</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="1" t="n">
         <v>1.33695652173913</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="1" t="n">
         <v>22.35053685527962</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.070503597122302</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25.12651169261975</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -667,11 +667,22 @@
       <c r="A19" s="3" t="n">
         <v>45363</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="1" t="n">
         <v>1.070503597122302</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="1" t="n">
         <v>25.12651169261975</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.494362532523851</v>
+      </c>
+      <c r="C20" t="n">
+        <v>26.48481593558208</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -678,11 +678,22 @@
       <c r="A20" s="3" t="n">
         <v>45364</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="1" t="n">
         <v>2.494362532523851</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="1" t="n">
         <v>26.48481593558208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.304635761589404</v>
+      </c>
+      <c r="C21" t="n">
+        <v>20.10371210277612</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -689,11 +689,22 @@
       <c r="A21" s="3" t="n">
         <v>45365</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="1" t="n">
         <v>2.304635761589404</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="1" t="n">
         <v>20.10371210277612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.635897435897436</v>
+      </c>
+      <c r="C22" t="n">
+        <v>45.27883675145699</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -700,11 +700,22 @@
       <c r="A22" s="3" t="n">
         <v>45366</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="1" t="n">
         <v>1.635897435897436</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="1" t="n">
         <v>45.27883675145699</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.005722460658083</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.47075875072532</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -711,11 +711,22 @@
       <c r="A23" s="3" t="n">
         <v>45366</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="1" t="n">
         <v>1.005722460658083</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="1" t="n">
         <v>1.47075875072532</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.8286696121747669</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.13941692810529</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -722,11 +722,22 @@
       <c r="A24" s="3" t="n">
         <v>45369</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="1" t="n">
         <v>0.8286696121747669</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="1" t="n">
         <v>1.13941692810529</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45370</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9545712663259511</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.381106045029703</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -733,11 +733,22 @@
       <c r="A25" s="3" t="n">
         <v>45370</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="1" t="n">
         <v>0.9545712663259511</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="1" t="n">
         <v>1.381106045029703</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45371</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9731770315914962</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.212474887034177</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -744,11 +744,22 @@
       <c r="A26" s="3" t="n">
         <v>45371</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="1" t="n">
         <v>0.9731770315914962</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="1" t="n">
         <v>1.212474887034177</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45372</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.7902097902097902</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.44646567966675</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -755,11 +755,22 @@
       <c r="A27" s="3" t="n">
         <v>45372</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="1" t="n">
         <v>0.7902097902097902</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="1" t="n">
         <v>1.44646567966675</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.104270109235353</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.138501534799223</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -766,11 +766,22 @@
       <c r="A28" s="3" t="n">
         <v>45373</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="1" t="n">
         <v>1.104270109235353</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="1" t="n">
         <v>1.138501534799223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2489235185564896</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3710871472486669</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -777,11 +777,22 @@
       <c r="A29" s="3" t="n">
         <v>45376</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="1" t="n">
         <v>0.2489235185564896</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="1" t="n">
         <v>0.3710871472486669</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45377</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.8426395939086294</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.8503768351654735</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -788,11 +788,22 @@
       <c r="A30" s="3" t="n">
         <v>45377</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="1" t="n">
         <v>0.8426395939086294</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="1" t="n">
         <v>0.8503768351654735</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3363526570048309</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.065614706115437</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -799,11 +799,22 @@
       <c r="A31" s="3" t="n">
         <v>45378</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="1" t="n">
         <v>0.3363526570048309</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="1" t="n">
         <v>1.065614706115437</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.05672268907563</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.150629878661411</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -810,11 +810,22 @@
       <c r="A32" s="3" t="n">
         <v>45379</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="1" t="n">
         <v>1.05672268907563</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="1" t="n">
         <v>1.150629878661411</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9759846301633045</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.189770324524684</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -821,11 +821,22 @@
       <c r="A33" s="3" t="n">
         <v>45383</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="1" t="n">
         <v>0.9759846301633045</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="1" t="n">
         <v>1.189770324524684</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9409090909090909</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.258855158611212</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -832,11 +832,22 @@
       <c r="A34" s="3" t="n">
         <v>45384</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="1" t="n">
         <v>0.9409090909090909</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="1" t="n">
         <v>1.258855158611212</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6995305164319249</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.8112772657506947</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -843,11 +843,22 @@
       <c r="A35" s="3" t="n">
         <v>45385</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="1" t="n">
         <v>0.6995305164319249</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="1" t="n">
         <v>0.8112772657506947</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.152588555858311</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.271615089116135</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -854,11 +854,22 @@
       <c r="A36" s="3" t="n">
         <v>45386</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="1" t="n">
         <v>1.152588555858311</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="1" t="n">
         <v>1.271615089116135</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1980348578781144</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7198565474836828</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -865,11 +865,22 @@
       <c r="A37" s="3" t="n">
         <v>45387</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="1" t="n">
         <v>0.1980348578781144</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="1" t="n">
         <v>0.7198565474836828</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.379398266190719</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.221493491803684</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -876,11 +876,22 @@
       <c r="A38" s="3" t="n">
         <v>45390</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="1" t="n">
         <v>0.379398266190719</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="1" t="n">
         <v>1.221493491803684</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5802955665024631</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.10907327749822</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -887,11 +887,22 @@
       <c r="A39" s="3" t="n">
         <v>45391</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="1" t="n">
         <v>0.5802955665024631</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="1" t="n">
         <v>1.10907327749822</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.6604303086997194</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.120444247912381</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -898,11 +898,22 @@
       <c r="A40" s="3" t="n">
         <v>45392</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="1" t="n">
         <v>0.6604303086997194</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="1" t="n">
         <v>1.120444247912381</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.2930036822724882</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.878787233740616</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -909,11 +909,22 @@
       <c r="A41" s="3" t="n">
         <v>45393</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="1" t="n">
         <v>0.2930036822724882</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="1" t="n">
         <v>1.878787233740616</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8462255358807083</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.732299757030723</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -920,11 +920,22 @@
       <c r="A42" s="3" t="n">
         <v>45394</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="1" t="n">
         <v>0.8462255358807083</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="1" t="n">
         <v>1.732299757030723</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.198148148148148</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.497039892249752</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -931,11 +931,22 @@
       <c r="A43" s="3" t="n">
         <v>45397</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="1" t="n">
         <v>1.198148148148148</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="1" t="n">
         <v>2.497039892249752</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.094616639477977</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.999446778803725</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -942,11 +942,22 @@
       <c r="A44" s="3" t="n">
         <v>45398</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="1" t="n">
         <v>1.094616639477977</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="1" t="n">
         <v>2.999446778803725</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2.320699708454811</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5.264832501502521</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -953,11 +953,22 @@
       <c r="A45" s="3" t="n">
         <v>45399</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="1" t="n">
         <v>2.320699708454811</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="1" t="n">
         <v>5.264832501502521</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2.090909090909091</v>
+      </c>
+      <c r="C46" t="n">
+        <v>7.278803510020158</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -964,11 +964,22 @@
       <c r="A46" s="3" t="n">
         <v>45400</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="1" t="n">
         <v>2.090909090909091</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="1" t="n">
         <v>7.278803510020158</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.520661157024793</v>
+      </c>
+      <c r="C47" t="n">
+        <v>4.067755028169817</v>
       </c>
     </row>
     <row r="1048560" ht="12.8" customHeight="1" s="2"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
@@ -975,10 +975,21 @@
       <c r="A47" s="3" t="n">
         <v>45401</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="1" t="n">
         <v>1.520661157024793</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="1" t="n">
+        <v>4.067755028169817</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.520661157024793</v>
+      </c>
+      <c r="C48" t="n">
         <v>4.067755028169817</v>
       </c>
     </row>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -1010,11 +1010,22 @@
       <c r="A49" s="7" t="n">
         <v>45405</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="4" t="n">
         <v>0.8839088905216752</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="4" t="n">
         <v>14.5606007580012</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.436842105263158</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.831099082476113</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -1021,11 +1021,22 @@
       <c r="A50" s="7" t="n">
         <v>45406</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="4" t="n">
         <v>1.436842105263158</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="4" t="n">
         <v>9.831099082476113</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.584905660377359</v>
+      </c>
+      <c r="C51" t="n">
+        <v>20.64747250857822</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -1032,11 +1032,22 @@
       <c r="A51" s="7" t="n">
         <v>45407</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="4" t="n">
         <v>1.584905660377359</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="4" t="n">
         <v>20.64747250857822</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="7" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.441913439635535</v>
+      </c>
+      <c r="C52" t="n">
+        <v>25.94141891451737</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -1043,11 +1043,22 @@
       <c r="A52" s="7" t="n">
         <v>45408</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="4" t="n">
         <v>1.441913439635535</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="4" t="n">
         <v>25.94141891451737</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.37508327781479</v>
+      </c>
+      <c r="C53" t="n">
+        <v>19.70103949429423</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -1054,11 +1054,22 @@
       <c r="A53" s="7" t="n">
         <v>45411</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="4" t="n">
         <v>1.37508327781479</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="4" t="n">
         <v>19.70103949429423</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.492343934040047</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14.83283674272282</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -1065,11 +1065,22 @@
       <c r="A54" s="7" t="n">
         <v>45412</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="4" t="n">
         <v>1.492343934040047</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="4" t="n">
         <v>14.83283674272282</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.7748618784530387</v>
+      </c>
+      <c r="C55" t="n">
+        <v>6.053683161423643</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -1076,11 +1076,22 @@
       <c r="A55" s="7" t="n">
         <v>45414</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="4" t="n">
         <v>0.7748618784530387</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="4" t="n">
         <v>6.053683161423643</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9420783645655877</v>
+      </c>
+      <c r="C56" t="n">
+        <v>17.25214367688118</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -1087,11 +1087,22 @@
       <c r="A56" s="7" t="n">
         <v>45415</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="4" t="n">
         <v>0.9420783645655877</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="4" t="n">
         <v>17.25214367688118</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.797011207970112</v>
+      </c>
+      <c r="C57" t="n">
+        <v>18.8387167356485</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -1098,11 +1098,22 @@
       <c r="A57" s="7" t="n">
         <v>45418</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="4" t="n">
         <v>0.797011207970112</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="4" t="n">
         <v>18.8387167356485</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.057560137457045</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.154459552299672</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2297,11 +2297,22 @@
       <c r="A166" s="7" t="n">
         <v>45573</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" s="4" t="n">
         <v>0.6180555555555556</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166" s="4" t="n">
         <v>0.5998722803221541</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="7" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9622491239248169</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.8265088152115049</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2308,11 +2308,22 @@
       <c r="A167" s="7" t="n">
         <v>45574</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" s="4" t="n">
         <v>0.9622491239248169</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167" s="4" t="n">
         <v>0.8265088152115049</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="7" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.4568540632982003</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2319,11 +2319,22 @@
       <c r="A168" s="7" t="n">
         <v>45575</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" s="4" t="n">
         <v>0.7021276595744681</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168" s="4" t="n">
         <v>0.4568540632982003</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="7" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.4823091247672253</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.4972140635400015</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2330,11 +2330,22 @@
       <c r="A169" s="7" t="n">
         <v>45576</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" s="4" t="n">
         <v>0.4823091247672253</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169" s="4" t="n">
         <v>0.4972140635400015</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="7" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7063492063492064</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.347853044763528</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2341,11 +2341,22 @@
       <c r="A170" s="7" t="n">
         <v>45579</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170" s="4" t="n">
         <v>0.7063492063492064</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170" s="4" t="n">
         <v>0.347853044763528</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="7" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.845360824742268</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.5228662284723256</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2352,11 +2352,22 @@
       <c r="A171" s="7" t="n">
         <v>45580</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" s="4" t="n">
         <v>0.845360824742268</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171" s="4" t="n">
         <v>0.5228662284723256</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="7" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.3829457364341085</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.7372815029525083</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2363,11 +2363,22 @@
       <c r="A172" s="7" t="n">
         <v>45581</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172" s="4" t="n">
         <v>0.3829457364341085</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172" s="4" t="n">
         <v>0.7372815029525083</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="7" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.1577453365774534</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.4768636358900085</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C174"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2374,11 +2374,22 @@
       <c r="A173" s="7" t="n">
         <v>45582</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" s="4" t="n">
         <v>0.1577453365774534</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173" s="4" t="n">
         <v>0.4768636358900085</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="7" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.185606060606061</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.258780003202204</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2385,10 +2385,21 @@
       <c r="A174" s="7" t="n">
         <v>45583</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" s="4" t="n">
         <v>1.185606060606061</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174" s="4" t="n">
+        <v>1.258780003202204</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="7" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.185606060606061</v>
+      </c>
+      <c r="C175" t="n">
         <v>1.258780003202204</v>
       </c>
     </row>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2396,10 +2396,21 @@
       <c r="A175" s="7" t="n">
         <v>45586</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175" s="4" t="n">
         <v>1.185606060606061</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175" s="4" t="n">
+        <v>1.258780003202204</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="7" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.185606060606061</v>
+      </c>
+      <c r="C176" t="n">
         <v>1.258780003202204</v>
       </c>
     </row>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2407,10 +2407,21 @@
       <c r="A176" s="7" t="n">
         <v>45587</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" s="4" t="n">
         <v>1.185606060606061</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176" s="4" t="n">
+        <v>1.258780003202204</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="7" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.185606060606061</v>
+      </c>
+      <c r="C177" t="n">
         <v>1.258780003202204</v>
       </c>
     </row>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2418,10 +2418,21 @@
       <c r="A177" s="7" t="n">
         <v>45588</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177" s="4" t="n">
         <v>1.185606060606061</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177" s="4" t="n">
+        <v>1.258780003202204</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="7" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1.185606060606061</v>
+      </c>
+      <c r="C178" t="n">
         <v>1.258780003202204</v>
       </c>
     </row>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2429,10 +2429,21 @@
       <c r="A178" s="7" t="n">
         <v>45589</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178" s="4" t="n">
         <v>1.185606060606061</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178" s="4" t="n">
+        <v>1.258780003202204</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="7" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.185606060606061</v>
+      </c>
+      <c r="C179" t="n">
         <v>1.258780003202204</v>
       </c>
     </row>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2440,10 +2440,21 @@
       <c r="A179" s="7" t="n">
         <v>45590</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" s="4" t="n">
         <v>1.185606060606061</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179" s="4" t="n">
+        <v>1.258780003202204</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="7" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.185606060606061</v>
+      </c>
+      <c r="C180" t="n">
         <v>1.258780003202204</v>
       </c>
     </row>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2451,10 +2451,21 @@
       <c r="A180" s="7" t="n">
         <v>45593</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180" s="4" t="n">
         <v>1.185606060606061</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180" s="4" t="n">
+        <v>1.258780003202204</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="7" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1.185606060606061</v>
+      </c>
+      <c r="C181" t="n">
         <v>1.258780003202204</v>
       </c>
     </row>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2462,10 +2462,21 @@
       <c r="A181" s="7" t="n">
         <v>45594</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181" s="4" t="n">
         <v>1.185606060606061</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181" s="4" t="n">
+        <v>1.258780003202204</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="7" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1.185606060606061</v>
+      </c>
+      <c r="C182" t="n">
         <v>1.258780003202204</v>
       </c>
     </row>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2473,10 +2473,21 @@
       <c r="A182" s="7" t="n">
         <v>45595</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182" s="4" t="n">
         <v>1.185606060606061</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182" s="4" t="n">
+        <v>1.258780003202204</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="7" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.185606060606061</v>
+      </c>
+      <c r="C183" t="n">
         <v>1.258780003202204</v>
       </c>
     </row>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C183"/>
+  <dimension ref="A1:C184"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2484,10 +2484,21 @@
       <c r="A183" s="7" t="n">
         <v>45596</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" s="4" t="n">
         <v>1.185606060606061</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183" s="4" t="n">
+        <v>1.258780003202204</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="7" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1.185606060606061</v>
+      </c>
+      <c r="C184" t="n">
         <v>1.258780003202204</v>
       </c>
     </row>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C184"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2495,11 +2495,22 @@
       <c r="A184" s="7" t="n">
         <v>45597</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184" s="4" t="n">
         <v>1.185606060606061</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184" s="4" t="n">
         <v>1.258780003202204</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="7" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.6933333333333334</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.153893083199878</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2506,11 +2506,22 @@
       <c r="A185" s="7" t="n">
         <v>45600</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185" s="4" t="n">
         <v>0.6933333333333334</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185" s="4" t="n">
         <v>1.153893083199878</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="7" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.9774774774774775</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.7939977142699303</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2517,11 +2517,22 @@
       <c r="A186" s="7" t="n">
         <v>45601</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" s="4" t="n">
         <v>0.9774774774774775</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186" s="4" t="n">
         <v>0.7939977142699303</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="7" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.98407275766743</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2528,11 +2528,22 @@
       <c r="A187" s="7" t="n">
         <v>45602</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" s="4" t="n">
         <v>0.8888888888888888</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187" s="4" t="n">
         <v>1.98407275766743</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="7" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.054263565891473</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.399939191015285</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2539,11 +2539,22 @@
       <c r="A188" s="7" t="n">
         <v>45603</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188" s="4" t="n">
         <v>1.054263565891473</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188" s="4" t="n">
         <v>1.399939191015285</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="7" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.3782211138819618</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.820422463717437</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2550,11 +2550,22 @@
       <c r="A189" s="7" t="n">
         <v>45604</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189" s="4" t="n">
         <v>0.3782211138819618</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189" s="4" t="n">
         <v>1.820422463717437</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="7" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1.440677966101695</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.837594618671418</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C190"/>
+  <dimension ref="A1:C191"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2561,11 +2561,22 @@
       <c r="A190" s="7" t="n">
         <v>45607</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190" s="4" t="n">
         <v>1.440677966101695</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190" s="4" t="n">
         <v>1.837594618671418</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="7" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1.516778523489933</v>
+      </c>
+      <c r="C191" t="n">
+        <v>12.93006186043823</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2572,11 +2572,22 @@
       <c r="A191" s="7" t="n">
         <v>45608</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" s="4" t="n">
         <v>1.516778523489933</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191" s="4" t="n">
         <v>12.93006186043823</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="7" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.346560846560847</v>
+      </c>
+      <c r="C192" t="n">
+        <v>7.658039734925702</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2583,11 +2583,33 @@
       <c r="A192" s="7" t="n">
         <v>45609</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192" s="4" t="n">
         <v>1.346560846560847</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192" s="4" t="n">
         <v>7.658039734925702</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="7" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B193" s="4" t="n">
+        <v>1.909302325581395</v>
+      </c>
+      <c r="C193" s="4" t="n">
+        <v>13.57995872839376</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="7" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1.087401208740121</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.5937081554186434</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2605,11 +2605,22 @@
       <c r="A194" s="7" t="n">
         <v>45610</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194" s="4" t="n">
         <v>1.087401208740121</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194" s="4" t="n">
         <v>0.5937081554186434</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="7" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B195" t="n">
+        <v>10.07002188183808</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.011729021007967</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2616,11 +2616,22 @@
       <c r="A195" s="7" t="n">
         <v>45614</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195" s="4" t="n">
         <v>10.07002188183808</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195" s="4" t="n">
         <v>1.011729021007967</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="7" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1.176339285714286</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.8511485546778053</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>

--- a/pcrabev.xlsx
+++ b/pcrabev.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
@@ -2627,11 +2627,22 @@
       <c r="A196" s="7" t="n">
         <v>45615</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196" s="4" t="n">
         <v>1.176339285714286</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196" s="4" t="n">
         <v>0.8511485546778053</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="7" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.8426229508196721</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.8454281864393933</v>
       </c>
     </row>
     <row r="1048556" ht="12.75" customHeight="1" s="5"/>
